--- a/Multi-taxa_data/PLITs/1-Extraction/PLIT_HI.xlsx
+++ b/Multi-taxa_data/PLITs/1-Extraction/PLIT_HI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\1-Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CB0DC-F9E4-4275-A923-23B2AF8614F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FD2D7-0928-4022-875E-AD98BD72CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2570,7 +2570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2631,8 +2631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2853,7 +2851,7 @@
   </sheetPr>
   <dimension ref="A1:S235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7186,7 +7184,7 @@
     <col min="17" max="25" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7204,7 +7202,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -7222,7 +7220,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -7241,7 +7239,7 @@
       <c r="L3" s="4"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -7295,7 +7293,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>26</v>
       </c>
@@ -7335,7 +7333,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -7372,7 +7370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>36</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>40</v>
       </c>
@@ -7448,7 +7446,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42</v>
       </c>
@@ -7489,7 +7487,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>48</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>55</v>
       </c>
@@ -7563,7 +7561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>63</v>
       </c>
@@ -7598,7 +7596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>82</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>89</v>
       </c>
@@ -7671,7 +7669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>96</v>
       </c>
@@ -7706,7 +7704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>107</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>112</v>
       </c>
@@ -7757,7 +7755,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>125</v>
       </c>
@@ -7784,7 +7782,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>129</v>
       </c>
@@ -7808,7 +7806,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>130</v>
       </c>
@@ -7826,7 +7824,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>138</v>
       </c>
@@ -7847,7 +7845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>145</v>
       </c>
@@ -7863,7 +7861,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>161</v>
       </c>
@@ -7882,7 +7880,7 @@
       </c>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>170</v>
       </c>
@@ -7900,7 +7898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>187</v>
       </c>
@@ -7919,7 +7917,7 @@
       </c>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>205</v>
       </c>
@@ -7937,7 +7935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>214</v>
       </c>
@@ -7958,7 +7956,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>222</v>
       </c>
@@ -7977,7 +7975,7 @@
       </c>
       <c r="L28" s="18"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>223</v>
       </c>
@@ -7995,7 +7993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>225</v>
       </c>
@@ -8013,7 +8011,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>244</v>
       </c>
@@ -8032,7 +8030,7 @@
       </c>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>258</v>
       </c>
@@ -8050,7 +8048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>262</v>
       </c>
@@ -8071,7 +8069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>276</v>
       </c>
@@ -8090,7 +8088,7 @@
       </c>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>277</v>
       </c>
@@ -8106,7 +8104,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>279</v>
       </c>
@@ -8125,7 +8123,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>281</v>
       </c>
@@ -8147,7 +8145,7 @@
       </c>
       <c r="L37" s="18"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>295</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>324</v>
       </c>
@@ -8189,7 +8187,7 @@
       </c>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>345</v>
       </c>
@@ -8208,7 +8206,7 @@
       </c>
       <c r="L40" s="18"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>349</v>
       </c>
@@ -8226,7 +8224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>360</v>
       </c>
@@ -8244,7 +8242,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>362</v>
       </c>
@@ -8263,7 +8261,7 @@
       </c>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>372</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>406</v>
       </c>
@@ -8299,7 +8297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>410</v>
       </c>
@@ -8318,7 +8316,7 @@
       </c>
       <c r="L46" s="18"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>447</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>453</v>
       </c>
@@ -8354,7 +8352,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>456</v>
       </c>
@@ -8373,7 +8371,7 @@
       </c>
       <c r="L49" s="18"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>466</v>
       </c>
@@ -8391,7 +8389,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>468</v>
       </c>
@@ -8412,7 +8410,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>565</v>
       </c>
@@ -8431,7 +8429,7 @@
       </c>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>571</v>
       </c>
@@ -8449,7 +8447,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>594</v>
       </c>
@@ -8465,7 +8463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>615</v>
       </c>
@@ -8484,7 +8482,7 @@
       </c>
       <c r="L55" s="18"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>623</v>
       </c>
@@ -8502,7 +8500,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>632</v>
       </c>
@@ -8518,7 +8516,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>640</v>
       </c>
@@ -8537,7 +8535,7 @@
       </c>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>649</v>
       </c>
@@ -8555,7 +8553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>655</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>673</v>
       </c>
@@ -8592,7 +8590,7 @@
       </c>
       <c r="L61" s="18"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>678</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>689</v>
       </c>
@@ -8631,7 +8629,7 @@
       </c>
       <c r="L63" s="18"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>707</v>
       </c>
@@ -8650,7 +8648,7 @@
       </c>
       <c r="L64" s="18"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>714</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>740</v>
       </c>
@@ -8697,7 +8695,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -8705,7 +8703,7 @@
       </c>
       <c r="L67" s="18"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>777</v>
       </c>
@@ -8723,7 +8721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>780</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>786</v>
       </c>
@@ -8760,7 +8758,7 @@
       </c>
       <c r="L70" s="18"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>812</v>
       </c>
@@ -8778,7 +8776,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>824</v>
       </c>
@@ -8797,7 +8795,7 @@
       </c>
       <c r="L72" s="18"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>858</v>
       </c>
@@ -8815,7 +8813,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>902</v>
       </c>
@@ -8831,7 +8829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>906</v>
       </c>
@@ -8850,7 +8848,7 @@
       </c>
       <c r="L75" s="18"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>913</v>
       </c>
@@ -8868,7 +8866,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>917</v>
       </c>
@@ -8886,7 +8884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>923</v>
       </c>
@@ -8905,7 +8903,7 @@
       </c>
       <c r="L78" s="18"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>925</v>
       </c>
@@ -8923,7 +8921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>930</v>
       </c>
@@ -8941,7 +8939,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>941</v>
       </c>
@@ -8960,7 +8958,7 @@
       </c>
       <c r="L81" s="18"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>947</v>
       </c>
@@ -8978,7 +8976,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>954</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>980</v>
       </c>
@@ -9015,7 +9013,7 @@
       </c>
       <c r="L84" s="18"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>988</v>
       </c>
@@ -9033,7 +9031,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>1013</v>
       </c>
@@ -9051,7 +9049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>1060</v>
       </c>
@@ -9070,7 +9068,7 @@
       </c>
       <c r="L87" s="18"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>1068</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>1077</v>
       </c>
@@ -9106,7 +9104,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>1079</v>
       </c>
@@ -9125,7 +9123,7 @@
       </c>
       <c r="L90" s="18"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>1099</v>
       </c>
@@ -9146,7 +9144,7 @@
       </c>
       <c r="L91" s="18"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>1115</v>
       </c>
@@ -9164,7 +9162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>1118</v>
       </c>
@@ -9183,7 +9181,7 @@
       </c>
       <c r="L93" s="18"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>1123</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>1128</v>
       </c>
@@ -9219,7 +9217,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>1131</v>
       </c>
@@ -9238,7 +9236,7 @@
       </c>
       <c r="L96" s="18"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>1133</v>
       </c>
@@ -9256,7 +9254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>1153</v>
       </c>
@@ -9274,7 +9272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>1160</v>
       </c>
@@ -9291,7 +9289,7 @@
       </c>
       <c r="L99" s="18"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>1164</v>
       </c>
@@ -9309,7 +9307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>1166</v>
       </c>
@@ -9327,7 +9325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1169</v>
       </c>
@@ -9346,7 +9344,7 @@
       </c>
       <c r="L102" s="18"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>1179</v>
       </c>
@@ -9364,7 +9362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>1189</v>
       </c>
@@ -9382,7 +9380,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>1196</v>
       </c>
@@ -9401,7 +9399,7 @@
       </c>
       <c r="L105" s="18"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>1198</v>
       </c>
@@ -9419,7 +9417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>1201</v>
       </c>
@@ -9437,7 +9435,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>1206</v>
       </c>
@@ -9456,7 +9454,7 @@
       </c>
       <c r="L108" s="18"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>1211</v>
       </c>
@@ -9474,7 +9472,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>1216</v>
       </c>
@@ -9492,7 +9490,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>1218</v>
       </c>
@@ -9511,7 +9509,7 @@
       </c>
       <c r="L111" s="18"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>1221</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>1223</v>
       </c>
@@ -9550,7 +9548,7 @@
       </c>
       <c r="L113" s="18"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>1235</v>
       </c>
@@ -9569,7 +9567,7 @@
       </c>
       <c r="L114" s="18"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>1238</v>
       </c>
@@ -9587,7 +9585,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>1241</v>
       </c>
@@ -9605,7 +9603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1245</v>
       </c>
@@ -9624,7 +9622,7 @@
       </c>
       <c r="L117" s="18"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1257</v>
       </c>
@@ -9642,7 +9640,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1260</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1266</v>
       </c>
@@ -9678,7 +9676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1268</v>
       </c>
@@ -9696,7 +9694,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1293</v>
       </c>
@@ -9714,7 +9712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1308</v>
       </c>
@@ -9729,7 +9727,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1322</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1328</v>
       </c>
@@ -9765,7 +9763,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>1354</v>
       </c>
@@ -9783,7 +9781,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1358</v>
       </c>
@@ -9801,7 +9799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1377</v>
       </c>
@@ -9819,7 +9817,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1384</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1397</v>
       </c>
@@ -9855,7 +9853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1408</v>
       </c>
@@ -9873,7 +9871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1415</v>
       </c>
@@ -9891,7 +9889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1434</v>
       </c>
@@ -9909,7 +9907,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1440</v>
       </c>
@@ -9927,7 +9925,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1450</v>
       </c>
@@ -9945,7 +9943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1492</v>
       </c>
@@ -9963,7 +9961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1511</v>
       </c>
@@ -9981,7 +9979,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1519</v>
       </c>
@@ -9999,7 +9997,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1541</v>
       </c>
@@ -10017,7 +10015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1545</v>
       </c>
@@ -10033,7 +10031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1558</v>
       </c>
@@ -10051,7 +10049,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1596</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1609</v>
       </c>
@@ -10087,7 +10085,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1613</v>
       </c>
@@ -10105,7 +10103,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1627</v>
       </c>
@@ -10123,7 +10121,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>1628</v>
       </c>
@@ -10141,7 +10139,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>1629</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1636</v>
       </c>
@@ -10177,7 +10175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1649</v>
       </c>
@@ -10195,7 +10193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1654</v>
       </c>
@@ -10210,7 +10208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1657</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>1664</v>
       </c>
@@ -10246,7 +10244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>1665</v>
       </c>
@@ -10264,7 +10262,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>1667</v>
       </c>
@@ -10285,7 +10283,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>1670</v>
       </c>
@@ -10306,7 +10304,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>1673</v>
       </c>
@@ -10324,7 +10322,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>1682</v>
       </c>
@@ -10342,7 +10340,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>1685</v>
       </c>
@@ -10360,7 +10358,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>1702</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>1721</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>1726</v>
       </c>
@@ -10417,7 +10415,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>1759</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>1762</v>
       </c>
@@ -10453,7 +10451,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>1777</v>
       </c>
@@ -10471,7 +10469,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <v>1780</v>
       </c>
@@ -10500,14 +10498,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="D166" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K166" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>1789</v>
       </c>
@@ -10525,7 +10523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>1793</v>
       </c>
@@ -10543,7 +10541,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>1820</v>
       </c>
@@ -10559,7 +10557,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>1832</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>1839</v>
       </c>
@@ -10595,7 +10593,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="26">
         <v>1852</v>
       </c>
@@ -10613,7 +10611,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <v>1858</v>
       </c>
@@ -10631,7 +10629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>1865</v>
       </c>
@@ -10649,7 +10647,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>1884</v>
       </c>
@@ -10667,7 +10665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
         <v>1893</v>
       </c>
@@ -10685,7 +10683,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>1900</v>
       </c>
@@ -10703,7 +10701,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>1911</v>
       </c>
@@ -10724,7 +10722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>1916</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>1947</v>
       </c>
@@ -10757,7 +10755,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>1954</v>
       </c>
@@ -10775,7 +10773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>1973</v>
       </c>
@@ -10793,7 +10791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>1984</v>
       </c>
@@ -10811,7 +10809,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>1988</v>
       </c>
@@ -10829,7 +10827,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>2005</v>
       </c>
@@ -10847,7 +10845,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>2020</v>
       </c>
@@ -10865,7 +10863,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>2022</v>
       </c>
@@ -10883,7 +10881,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>2032</v>
       </c>
@@ -10901,7 +10899,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>2039</v>
       </c>
@@ -10919,7 +10917,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>2060</v>
       </c>
@@ -10937,7 +10935,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>2068</v>
       </c>
@@ -10955,7 +10953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>2069</v>
       </c>
@@ -10973,7 +10971,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>2072</v>
       </c>
@@ -10991,7 +10989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>2075</v>
       </c>
@@ -11012,7 +11010,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>2092</v>
       </c>
@@ -11030,7 +11028,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <v>2101</v>
       </c>
@@ -11048,7 +11046,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <v>2105</v>
       </c>
@@ -11066,7 +11064,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>2107</v>
       </c>
@@ -11084,7 +11082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <v>2110</v>
       </c>
@@ -11102,7 +11100,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>2120</v>
       </c>
@@ -11120,7 +11118,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
         <v>2123</v>
       </c>
@@ -11138,7 +11136,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
         <v>2124</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
         <v>2132</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <v>2139</v>
       </c>
@@ -11189,7 +11187,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
         <v>2143</v>
       </c>
@@ -11207,7 +11205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
         <v>2149</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
         <v>2155</v>
       </c>
@@ -11243,7 +11241,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
         <v>2161</v>
       </c>
@@ -11261,7 +11259,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>2174</v>
       </c>
@@ -11279,7 +11277,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
         <v>2183</v>
       </c>
@@ -11297,7 +11295,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <v>2190</v>
       </c>
@@ -11315,7 +11313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
         <v>2208</v>
       </c>
@@ -11333,7 +11331,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="12">
         <v>2215</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <v>2217</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
         <v>2227</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <v>2255</v>
       </c>
@@ -11405,7 +11403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
         <v>2258</v>
       </c>
@@ -11423,7 +11421,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>2261</v>
       </c>
@@ -11441,7 +11439,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>2272</v>
       </c>
@@ -11459,7 +11457,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
         <v>2277</v>
       </c>
@@ -11477,7 +11475,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <v>2281</v>
       </c>
@@ -11495,7 +11493,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <v>2289</v>
       </c>
@@ -11513,7 +11511,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
         <v>2295</v>
       </c>
@@ -11531,7 +11529,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
         <v>2299</v>
       </c>
@@ -11549,7 +11547,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>2305</v>
       </c>
@@ -11567,7 +11565,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="12">
         <v>2309</v>
       </c>
@@ -11585,7 +11583,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
         <v>2313</v>
       </c>
@@ -11603,7 +11601,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12">
         <v>2358</v>
       </c>
@@ -11621,7 +11619,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
         <v>2361</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>2380</v>
       </c>
@@ -11657,7 +11655,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>2385</v>
       </c>
@@ -11675,7 +11673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>2407</v>
       </c>
@@ -11691,7 +11689,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>2412</v>
       </c>
@@ -11709,7 +11707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <v>2425</v>
       </c>
@@ -11727,7 +11725,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>2431</v>
       </c>
@@ -11748,7 +11746,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>2433</v>
       </c>
@@ -11766,7 +11764,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>2443</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>2452</v>
       </c>
@@ -11802,7 +11800,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>2460</v>
       </c>
@@ -11820,7 +11818,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>2490</v>
       </c>
@@ -11838,7 +11836,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>2514</v>
       </c>
@@ -11856,7 +11854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>2517</v>
       </c>
@@ -11874,7 +11872,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>2519</v>
       </c>
@@ -11892,7 +11890,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>2523</v>
       </c>
@@ -11910,7 +11908,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>2550</v>
       </c>
@@ -11928,7 +11926,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>2553</v>
       </c>
@@ -11946,7 +11944,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>2560</v>
       </c>
@@ -11964,7 +11962,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>2565</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>2567</v>
       </c>
@@ -12000,7 +11998,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>2572</v>
       </c>
@@ -12018,7 +12016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="12">
         <v>2598</v>
       </c>
@@ -12036,7 +12034,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>2600</v>
       </c>
@@ -12054,7 +12052,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="12">
         <v>2612</v>
       </c>
@@ -12072,7 +12070,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>2616</v>
       </c>
@@ -12090,7 +12088,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>2637</v>
       </c>
@@ -12108,7 +12106,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>2648</v>
       </c>
@@ -12126,7 +12124,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>2666</v>
       </c>
@@ -12144,7 +12142,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="12">
         <v>2675</v>
       </c>
@@ -12162,7 +12160,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="12">
         <v>2684</v>
       </c>
@@ -12180,7 +12178,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>2688</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="12">
         <v>2708</v>
       </c>
@@ -12219,7 +12217,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>2710</v>
       </c>
@@ -12234,7 +12232,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>2712</v>
       </c>
@@ -12250,7 +12248,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="12">
         <v>2716</v>
       </c>
@@ -12268,7 +12266,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>2720</v>
       </c>
@@ -12286,7 +12284,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>2724</v>
       </c>
@@ -12304,7 +12302,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
         <v>2737</v>
       </c>
@@ -12322,13 +12320,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
         <v>2741</v>
       </c>
       <c r="C268" s="12"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>161</v>
       </c>
@@ -12341,13 +12339,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12476,7 +12474,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44</v>
       </c>
@@ -12551,7 +12549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>68</v>
       </c>
@@ -12625,7 +12623,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>104</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>150</v>
       </c>
@@ -12807,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>153</v>
       </c>
@@ -12877,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>165</v>
       </c>
@@ -12904,7 +12902,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>168</v>
       </c>
@@ -12925,7 +12923,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>170</v>
       </c>
@@ -13009,7 +13007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>217</v>
       </c>
@@ -13046,7 +13044,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>221</v>
       </c>
@@ -13082,7 +13080,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>233</v>
       </c>
@@ -13154,7 +13152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>269</v>
       </c>
@@ -13226,7 +13224,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>334</v>
       </c>
@@ -13262,7 +13260,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>337</v>
       </c>
@@ -13298,7 +13296,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>342</v>
       </c>
@@ -13370,7 +13368,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>371</v>
       </c>
@@ -13406,7 +13404,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>392</v>
       </c>
@@ -13440,7 +13438,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>423</v>
       </c>
@@ -13548,7 +13546,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>467</v>
       </c>
@@ -13584,7 +13582,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>496</v>
       </c>
@@ -13602,7 +13600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>502</v>
       </c>
@@ -13638,7 +13636,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>507</v>
       </c>
@@ -13656,7 +13654,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>510</v>
       </c>
@@ -13674,7 +13672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>512</v>
       </c>
@@ -13710,7 +13708,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>539</v>
       </c>
@@ -13746,7 +13744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>548</v>
       </c>
@@ -13764,7 +13762,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>551</v>
       </c>
@@ -13780,7 +13778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>557</v>
       </c>
@@ -13798,7 +13796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>577</v>
       </c>
@@ -13834,7 +13832,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>588</v>
       </c>
@@ -13852,7 +13850,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>591</v>
       </c>
@@ -13870,7 +13868,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>596</v>
       </c>
@@ -13996,7 +13994,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>675</v>
       </c>
@@ -14053,7 +14051,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>773</v>
       </c>
@@ -14089,7 +14087,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>775</v>
       </c>
@@ -14164,7 +14162,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>974</v>
       </c>
@@ -14182,7 +14180,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>978</v>
       </c>
@@ -14255,7 +14253,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>1022</v>
       </c>
@@ -14291,7 +14289,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>1092</v>
       </c>
@@ -14327,7 +14325,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>1137</v>
       </c>
@@ -14363,7 +14361,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>1152</v>
       </c>
@@ -14399,7 +14397,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>1200</v>
       </c>
@@ -14453,7 +14451,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>1255</v>
       </c>
@@ -14489,7 +14487,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>1273</v>
       </c>
@@ -14507,7 +14505,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>1275</v>
       </c>
@@ -14582,7 +14580,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>1336</v>
       </c>
@@ -14600,7 +14598,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>1343</v>
       </c>
@@ -14634,7 +14632,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>1367</v>
       </c>
@@ -14670,7 +14668,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>1372</v>
       </c>
@@ -14706,7 +14704,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>1403</v>
       </c>
@@ -14742,7 +14740,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>1413</v>
       </c>
@@ -14835,7 +14833,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>1448</v>
       </c>
@@ -14871,7 +14869,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>1455</v>
       </c>
@@ -14925,7 +14923,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>1483</v>
       </c>
@@ -14941,7 +14939,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>1486</v>
       </c>
@@ -14959,7 +14957,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>1488</v>
       </c>
@@ -15085,7 +15083,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>1526</v>
       </c>
@@ -15121,7 +15119,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>1529</v>
       </c>
@@ -15157,7 +15155,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>1563</v>
       </c>
@@ -15175,7 +15173,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>1565</v>
       </c>
@@ -15211,7 +15209,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>1571</v>
       </c>
@@ -15250,7 +15248,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>1579</v>
       </c>
@@ -15268,7 +15266,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>1581</v>
       </c>
@@ -15284,7 +15282,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>1582</v>
       </c>
@@ -15302,7 +15300,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>1588</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>1591</v>
       </c>
@@ -15336,7 +15334,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>1601</v>
       </c>
@@ -15354,7 +15352,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>1606</v>
       </c>
@@ -15408,7 +15406,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>1649</v>
       </c>
@@ -15426,7 +15424,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>1651</v>
       </c>
@@ -15462,7 +15460,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>1675</v>
       </c>
@@ -15534,7 +15532,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>1751</v>
       </c>
@@ -15552,7 +15550,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>1758</v>
       </c>
@@ -15606,7 +15604,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>1772</v>
       </c>
@@ -15624,7 +15622,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <v>1778</v>
       </c>
@@ -15660,7 +15658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <v>1785</v>
       </c>
@@ -15696,7 +15694,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>1804</v>
       </c>
@@ -15750,7 +15748,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>1828</v>
       </c>
@@ -15768,7 +15766,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>1837</v>
       </c>
@@ -15804,7 +15802,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>1871</v>
       </c>
@@ -15873,7 +15871,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>1900</v>
       </c>
@@ -15909,7 +15907,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>1909</v>
       </c>
@@ -15987,7 +15985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>1995</v>
       </c>
@@ -16026,7 +16024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>2062</v>
       </c>
@@ -16044,7 +16042,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>2066</v>
       </c>
@@ -16062,7 +16060,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>2073</v>
       </c>
@@ -16080,7 +16078,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>2083</v>
       </c>
@@ -16098,7 +16096,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>2086</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>2109</v>
       </c>
@@ -16134,7 +16132,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>2114</v>
       </c>
@@ -16191,7 +16189,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>2201</v>
       </c>
@@ -16227,7 +16225,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>2204</v>
       </c>
@@ -16263,7 +16261,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
         <v>2214</v>
       </c>
@@ -16302,7 +16300,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <v>2221</v>
       </c>
@@ -16323,7 +16321,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
         <v>2225</v>
       </c>
@@ -16342,7 +16340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
         <v>2229</v>
       </c>
@@ -16360,7 +16358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
         <v>2230</v>
       </c>
@@ -16378,7 +16376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
         <v>2237</v>
       </c>
@@ -16396,7 +16394,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>2238</v>
       </c>
@@ -16432,7 +16430,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <v>2258</v>
       </c>
@@ -16486,7 +16484,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <v>2351</v>
       </c>
@@ -16522,7 +16520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <v>2356</v>
       </c>
@@ -16561,7 +16559,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>2397</v>
       </c>
@@ -16579,7 +16577,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>2411</v>
       </c>
@@ -16597,7 +16595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
         <v>2414</v>
       </c>
@@ -16615,7 +16613,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <v>2421</v>
       </c>
@@ -16631,7 +16629,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <v>2423</v>
       </c>
@@ -16724,7 +16722,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
         <v>2465</v>
       </c>
@@ -16760,7 +16758,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
         <v>2476</v>
       </c>
@@ -16796,7 +16794,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>2490</v>
       </c>
@@ -16835,7 +16833,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>2521</v>
       </c>
@@ -16871,7 +16869,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>2532</v>
       </c>
@@ -16907,7 +16905,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>2539</v>
       </c>
@@ -16943,7 +16941,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>2555</v>
       </c>
@@ -17018,7 +17016,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>2573</v>
       </c>
@@ -17036,7 +17034,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>2576</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>2592</v>
       </c>
@@ -17070,7 +17068,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>2595</v>
       </c>
@@ -17086,7 +17084,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>2597</v>
       </c>
@@ -17122,7 +17120,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>2606</v>
       </c>
@@ -17140,7 +17138,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>2608</v>
       </c>
@@ -17176,7 +17174,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>2627</v>
       </c>
@@ -17212,7 +17210,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>2636</v>
       </c>
@@ -17230,7 +17228,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>2641</v>
       </c>
@@ -17266,7 +17264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>2652</v>
       </c>
@@ -17323,7 +17321,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>2667</v>
       </c>
@@ -17359,7 +17357,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>2673</v>
       </c>
@@ -17377,7 +17375,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>2680</v>
       </c>
@@ -17395,7 +17393,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12">
         <v>2682</v>
       </c>
@@ -17431,7 +17429,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>2688</v>
       </c>
@@ -17449,7 +17447,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
         <v>2699</v>
       </c>
@@ -17501,7 +17499,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12">
         <v>2716</v>
       </c>
@@ -17537,19 +17535,25 @@
         <v>405</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12">
         <v>2725</v>
       </c>
       <c r="C272" s="12"/>
     </row>
-    <row r="273" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:X273" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A4:X273" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="hard_coral"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27565,7 +27569,7 @@
     <col min="17" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -27586,7 +27590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -27604,7 +27608,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -27623,7 +27627,7 @@
       <c r="L3" s="4"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -27677,7 +27681,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>110</v>
       </c>
@@ -27720,7 +27724,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>117</v>
       </c>
@@ -27757,7 +27761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>128</v>
       </c>
@@ -27796,7 +27800,7 @@
       </c>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>133</v>
       </c>
@@ -27838,7 +27842,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>134</v>
       </c>
@@ -27880,7 +27884,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>145</v>
       </c>
@@ -27917,7 +27921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>152</v>
       </c>
@@ -27952,7 +27956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>154</v>
       </c>
@@ -27988,7 +27992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>159</v>
       </c>
@@ -28023,7 +28027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>162</v>
       </c>
@@ -28059,7 +28063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>179</v>
       </c>
@@ -28094,7 +28098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>183</v>
       </c>
@@ -28121,7 +28125,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>203</v>
       </c>
@@ -28142,7 +28146,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>221</v>
       </c>
@@ -28167,7 +28171,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>260</v>
       </c>
@@ -28192,7 +28196,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>263</v>
       </c>
@@ -28211,7 +28215,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>268</v>
       </c>
@@ -28233,7 +28237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>273</v>
       </c>
@@ -28251,7 +28255,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>282</v>
       </c>
@@ -28273,7 +28277,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>285</v>
       </c>
@@ -28292,7 +28296,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>286</v>
       </c>
@@ -28311,7 +28315,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>288</v>
       </c>
@@ -28330,7 +28334,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>291</v>
       </c>
@@ -28349,7 +28353,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>293</v>
       </c>
@@ -28367,7 +28371,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>295</v>
       </c>
@@ -28387,7 +28391,7 @@
       </c>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>345</v>
       </c>
@@ -28405,7 +28409,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>354</v>
       </c>
@@ -28423,7 +28427,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>357</v>
       </c>
@@ -28441,7 +28445,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>359</v>
       </c>
@@ -28459,7 +28463,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>383</v>
       </c>
@@ -28477,7 +28481,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>387</v>
       </c>
@@ -28495,7 +28499,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>400</v>
       </c>
@@ -28513,7 +28517,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>427</v>
       </c>
@@ -28531,7 +28535,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>430</v>
       </c>
@@ -28551,7 +28555,7 @@
       </c>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>482</v>
       </c>
@@ -28569,7 +28573,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>485</v>
       </c>
@@ -28587,7 +28591,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>491</v>
       </c>
@@ -28605,7 +28609,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>512</v>
       </c>
@@ -28624,7 +28628,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>524</v>
       </c>
@@ -28642,7 +28646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>527</v>
       </c>
@@ -28663,7 +28667,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>569</v>
       </c>
@@ -28681,7 +28685,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>571</v>
       </c>
@@ -28699,7 +28703,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>575</v>
       </c>
@@ -28717,7 +28721,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>580</v>
       </c>
@@ -28738,7 +28742,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>598</v>
       </c>
@@ -28760,7 +28764,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>604</v>
       </c>
@@ -28778,7 +28782,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>612</v>
       </c>
@@ -28796,7 +28800,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>623</v>
       </c>
@@ -28814,7 +28818,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>630</v>
       </c>
@@ -28835,7 +28839,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>645</v>
       </c>
@@ -28854,7 +28858,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>653</v>
       </c>
@@ -28873,7 +28877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>655</v>
       </c>
@@ -28891,7 +28895,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>658</v>
       </c>
@@ -28907,7 +28911,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>662</v>
       </c>
@@ -28925,7 +28929,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>672</v>
       </c>
@@ -28943,7 +28947,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>676</v>
       </c>
@@ -28961,7 +28965,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>697</v>
       </c>
@@ -28979,7 +28983,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>715</v>
       </c>
@@ -28990,7 +28994,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="12" t="s">
         <v>793</v>
       </c>
       <c r="K62" s="7" t="s">
@@ -28998,7 +29002,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>734</v>
       </c>
@@ -29018,7 +29022,7 @@
       </c>
       <c r="L63" s="18"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>753</v>
       </c>
@@ -29037,7 +29041,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>757</v>
       </c>
@@ -29055,7 +29059,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>761</v>
       </c>
@@ -29074,7 +29078,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>780</v>
       </c>
@@ -29092,7 +29096,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>788</v>
       </c>
@@ -29110,7 +29114,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>797</v>
       </c>
@@ -29128,7 +29132,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>817</v>
       </c>
@@ -29146,7 +29150,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>820</v>
       </c>
@@ -29168,7 +29172,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>831</v>
       </c>
@@ -29186,7 +29190,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>844</v>
       </c>
@@ -29204,7 +29208,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>857</v>
       </c>
@@ -29225,7 +29229,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>863</v>
       </c>
@@ -29246,7 +29250,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>877</v>
       </c>
@@ -29270,7 +29274,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>884</v>
       </c>
@@ -29288,7 +29292,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>891</v>
       </c>
@@ -29307,7 +29311,7 @@
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>905</v>
       </c>
@@ -29325,7 +29329,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>907</v>
       </c>
@@ -29343,7 +29347,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>912</v>
       </c>
@@ -29361,7 +29365,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>928</v>
       </c>
@@ -29382,7 +29386,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>945</v>
       </c>
@@ -29400,7 +29404,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>967</v>
       </c>
@@ -29418,7 +29422,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>974</v>
       </c>
@@ -29436,7 +29440,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>977</v>
       </c>
@@ -29454,7 +29458,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>979</v>
       </c>
@@ -29472,7 +29476,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>986</v>
       </c>
@@ -29490,7 +29494,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>1006</v>
       </c>
@@ -29509,7 +29513,7 @@
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>1039</v>
       </c>
@@ -29528,7 +29532,7 @@
       </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>1041</v>
       </c>
@@ -29547,7 +29551,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>1043</v>
       </c>
@@ -29566,7 +29570,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>1045</v>
       </c>
@@ -29584,7 +29588,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>1062</v>
       </c>
@@ -29602,7 +29606,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>1091</v>
       </c>
@@ -29620,7 +29624,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>1104</v>
       </c>
@@ -29638,7 +29642,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>1105</v>
       </c>
@@ -29656,7 +29660,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>1118</v>
       </c>
@@ -29674,7 +29678,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>1121</v>
       </c>
@@ -29692,7 +29696,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>1124</v>
       </c>
@@ -29710,7 +29714,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>1129</v>
       </c>
@@ -29728,7 +29732,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1145</v>
       </c>
@@ -29746,7 +29750,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>1156</v>
       </c>
@@ -29764,7 +29768,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>1159</v>
       </c>
@@ -29780,7 +29784,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>1161</v>
       </c>
@@ -29798,7 +29802,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>1170</v>
       </c>
@@ -29816,7 +29820,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>1175</v>
       </c>
@@ -29834,7 +29838,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>1184</v>
       </c>
@@ -29855,7 +29859,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>1186</v>
       </c>
@@ -29874,7 +29878,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>1199</v>
       </c>
@@ -29896,7 +29900,7 @@
       </c>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>1223</v>
       </c>
@@ -29914,7 +29918,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>1236</v>
       </c>
@@ -29932,7 +29936,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>1237</v>
       </c>
@@ -29950,7 +29954,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>1240</v>
       </c>
@@ -29968,7 +29972,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>1248</v>
       </c>
@@ -29987,7 +29991,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>1262</v>
       </c>
@@ -30005,7 +30009,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1266</v>
       </c>
@@ -30025,7 +30029,7 @@
       </c>
       <c r="L117" s="18"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1268</v>
       </c>
@@ -30043,7 +30047,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1269</v>
       </c>
@@ -30061,7 +30065,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1272</v>
       </c>
@@ -30079,7 +30083,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1280</v>
       </c>
@@ -30097,7 +30101,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1286</v>
       </c>
@@ -30116,7 +30120,7 @@
       </c>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1287</v>
       </c>
@@ -30134,7 +30138,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1308</v>
       </c>
@@ -30152,7 +30156,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1316</v>
       </c>
@@ -30171,7 +30175,7 @@
       </c>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>1322</v>
       </c>
@@ -30189,7 +30193,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1324</v>
       </c>
@@ -30207,7 +30211,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1342</v>
       </c>
@@ -30223,7 +30227,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1345</v>
       </c>
@@ -30241,7 +30245,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1347</v>
       </c>
@@ -30259,7 +30263,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1353</v>
       </c>
@@ -30277,7 +30281,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1357</v>
       </c>
@@ -30295,7 +30299,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1380</v>
       </c>
@@ -30313,7 +30317,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1394</v>
       </c>
@@ -30332,7 +30336,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1396</v>
       </c>
@@ -30350,7 +30354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1399</v>
       </c>
@@ -30368,7 +30372,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1405</v>
       </c>
@@ -30387,7 +30391,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1422</v>
       </c>
@@ -30406,7 +30410,7 @@
       </c>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1426</v>
       </c>
@@ -30424,7 +30428,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1427</v>
       </c>
@@ -30442,7 +30446,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1432</v>
       </c>
@@ -30460,7 +30464,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1435</v>
       </c>
@@ -30476,7 +30480,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1440</v>
       </c>
@@ -30512,7 +30516,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1444</v>
       </c>
@@ -30530,7 +30534,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>1447</v>
       </c>
@@ -30548,7 +30552,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>1456</v>
       </c>
@@ -30569,7 +30573,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1475</v>
       </c>
@@ -30587,7 +30591,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1484</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1494</v>
       </c>
@@ -30623,7 +30627,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1495</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>1509</v>
       </c>
@@ -30659,7 +30663,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>1516</v>
       </c>
@@ -30677,7 +30681,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>1520</v>
       </c>
@@ -30695,7 +30699,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>1532</v>
       </c>
@@ -30713,7 +30717,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>1534</v>
       </c>
@@ -30731,7 +30735,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>1536</v>
       </c>
@@ -30749,7 +30753,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>1549</v>
       </c>
@@ -30767,7 +30771,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>1552</v>
       </c>
@@ -30785,7 +30789,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>1559</v>
       </c>
@@ -30803,7 +30807,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>1570</v>
       </c>
@@ -30822,7 +30826,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>1578</v>
       </c>
@@ -30840,7 +30844,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>1585</v>
       </c>
@@ -30858,7 +30862,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>1587</v>
       </c>
@@ -30877,7 +30881,7 @@
       </c>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>1593</v>
       </c>
@@ -30895,7 +30899,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>1608</v>
       </c>
@@ -30911,7 +30915,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>1612</v>
       </c>
@@ -30929,7 +30933,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>1619</v>
       </c>
@@ -30947,7 +30951,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>1621</v>
       </c>
@@ -30965,7 +30969,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>1631</v>
       </c>
@@ -30983,7 +30987,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>1634</v>
       </c>
@@ -31001,7 +31005,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>1641</v>
       </c>
@@ -31020,7 +31024,7 @@
       </c>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>1672</v>
       </c>
@@ -31042,7 +31046,7 @@
       </c>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>1675</v>
       </c>
@@ -31060,7 +31064,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>1680</v>
       </c>
@@ -31078,7 +31082,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>1729</v>
       </c>
@@ -31096,7 +31100,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>1733</v>
       </c>
@@ -31114,7 +31118,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>1741</v>
       </c>
@@ -31132,7 +31136,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>1743</v>
       </c>
@@ -31151,7 +31155,7 @@
       </c>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>1750</v>
       </c>
@@ -31169,7 +31173,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>1759</v>
       </c>
@@ -31187,7 +31191,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>1761</v>
       </c>
@@ -31205,7 +31209,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>1779</v>
       </c>
@@ -31223,7 +31227,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>1785</v>
       </c>
@@ -31241,7 +31245,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>1809</v>
       </c>
@@ -31259,7 +31263,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>1814</v>
       </c>
@@ -31277,7 +31281,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>1818</v>
       </c>
@@ -31295,7 +31299,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>1825</v>
       </c>
@@ -31313,7 +31317,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>1835</v>
       </c>
@@ -31332,7 +31336,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>1844</v>
       </c>
@@ -31350,7 +31354,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>1851</v>
       </c>
@@ -31368,7 +31372,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>1900</v>
       </c>
@@ -31386,7 +31390,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>1917</v>
       </c>
@@ -31404,7 +31408,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>1923</v>
       </c>
@@ -31423,7 +31427,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>1930</v>
       </c>
@@ -31439,7 +31443,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>1932</v>
       </c>
@@ -31457,7 +31461,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>1933</v>
       </c>
@@ -31475,7 +31479,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>1935</v>
       </c>
@@ -31493,7 +31497,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>1949</v>
       </c>
@@ -31511,7 +31515,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>1952</v>
       </c>
@@ -31529,7 +31533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>1955</v>
       </c>
@@ -31547,7 +31551,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>1961</v>
       </c>
@@ -31565,7 +31569,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>1964</v>
       </c>
@@ -31583,7 +31587,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>1976</v>
       </c>
@@ -31601,7 +31605,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>1979</v>
       </c>
@@ -31620,7 +31624,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>2015</v>
       </c>
@@ -31640,7 +31644,7 @@
       </c>
       <c r="L206" s="7"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>2025</v>
       </c>
@@ -31659,7 +31663,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>2028</v>
       </c>
@@ -31677,7 +31681,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>2030</v>
       </c>
@@ -31695,7 +31699,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>2033</v>
       </c>
@@ -31713,7 +31717,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>2038</v>
       </c>
@@ -31731,7 +31735,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>2041</v>
       </c>
@@ -31749,7 +31753,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>2046</v>
       </c>
@@ -31767,7 +31771,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>2054</v>
       </c>
@@ -31785,7 +31789,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>2064</v>
       </c>
@@ -31803,7 +31807,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>2088</v>
       </c>
@@ -31821,7 +31825,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>2093</v>
       </c>
@@ -31839,7 +31843,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>2100</v>
       </c>
@@ -31857,7 +31861,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>2104</v>
       </c>
@@ -31875,7 +31879,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>2145</v>
       </c>
@@ -31893,7 +31897,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>2147</v>
       </c>
@@ -31911,7 +31915,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>2152</v>
       </c>
@@ -31929,7 +31933,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>2160</v>
       </c>
@@ -31947,7 +31951,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>2163</v>
       </c>
@@ -31965,7 +31969,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>2170</v>
       </c>
@@ -31983,7 +31987,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>2190</v>
       </c>
@@ -32003,7 +32007,7 @@
       </c>
       <c r="L226" s="18"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>2199</v>
       </c>
@@ -32021,7 +32025,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>2210</v>
       </c>
@@ -32039,7 +32043,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>2213</v>
       </c>
@@ -32057,7 +32061,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>2223</v>
       </c>
@@ -32075,7 +32079,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>2228</v>
       </c>
@@ -32093,7 +32097,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>2238</v>
       </c>
@@ -32111,7 +32115,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>2242</v>
       </c>
@@ -32130,7 +32134,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <v>2249</v>
       </c>
@@ -32148,7 +32152,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>2284</v>
       </c>
@@ -32166,7 +32170,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>2297</v>
       </c>
@@ -32184,7 +32188,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>2310</v>
       </c>
@@ -32202,7 +32206,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>2345</v>
       </c>
@@ -32220,7 +32224,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>2355</v>
       </c>
@@ -32238,7 +32242,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>2357</v>
       </c>
@@ -32256,7 +32260,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>2365</v>
       </c>
@@ -32274,7 +32278,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>2366</v>
       </c>
@@ -32290,7 +32294,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>2370</v>
       </c>
@@ -32308,7 +32312,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>2377</v>
       </c>
@@ -32326,7 +32330,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>2387</v>
       </c>
@@ -32344,7 +32348,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>2391</v>
       </c>
@@ -32362,7 +32366,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>2401</v>
       </c>
@@ -32380,7 +32384,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>2407</v>
       </c>
@@ -32400,7 +32404,7 @@
       </c>
       <c r="L248" s="18"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>2417</v>
       </c>
@@ -32418,7 +32422,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>2422</v>
       </c>
@@ -32436,7 +32440,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="12">
         <v>2426</v>
       </c>
@@ -32454,7 +32458,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>2431</v>
       </c>
@@ -32472,7 +32476,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="12">
         <v>2445</v>
       </c>
@@ -32490,7 +32494,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>2458</v>
       </c>
@@ -32508,7 +32512,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>2466</v>
       </c>
@@ -32526,7 +32530,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>2485</v>
       </c>
@@ -32544,7 +32548,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>2491</v>
       </c>
@@ -32562,7 +32566,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="12">
         <v>2492</v>
       </c>
@@ -32580,7 +32584,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="12">
         <v>2495</v>
       </c>
@@ -32598,7 +32602,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>2529</v>
       </c>
@@ -32616,7 +32620,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="12">
         <v>2530</v>
       </c>
@@ -32634,7 +32638,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>2532</v>
       </c>
@@ -32652,7 +32656,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>2538</v>
       </c>
@@ -32670,7 +32674,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="12">
         <v>2540</v>
       </c>
@@ -32691,7 +32695,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>2543</v>
       </c>
@@ -32709,7 +32713,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>2547</v>
       </c>
@@ -32727,7 +32731,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
         <v>2549</v>
       </c>
@@ -32745,7 +32749,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
         <v>2591</v>
       </c>
@@ -32763,7 +32767,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="12">
         <v>2595</v>
       </c>
@@ -32781,7 +32785,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="12">
         <v>2600</v>
       </c>
@@ -32799,7 +32803,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="12">
         <v>2603</v>
       </c>
@@ -32817,7 +32821,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="12">
         <v>2606</v>
       </c>
@@ -32835,7 +32839,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="12">
         <v>2615</v>
       </c>
@@ -32853,7 +32857,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="12">
         <v>2620</v>
       </c>
@@ -32871,7 +32875,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="12">
         <v>2645</v>
       </c>
@@ -32889,7 +32893,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="12">
         <v>2651</v>
       </c>
@@ -32907,7 +32911,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="12">
         <v>2667</v>
       </c>
@@ -32925,13 +32929,13 @@
         <v>792</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="12">
         <v>2671</v>
       </c>
       <c r="C278" s="12"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>161</v>
       </c>
